--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEA60164-9011-450A-8FEA-76787C23646A}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4218280B-7AF2-4EA5-8682-7C974F269A80}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Stundenaufzeichnung:</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Datum:</t>
+  </si>
+  <si>
+    <t>Antonio Peric</t>
+  </si>
+  <si>
+    <t>William Lau</t>
+  </si>
+  <si>
+    <t>Klickdummy</t>
+  </si>
+  <si>
+    <t>Issues/ERD</t>
+  </si>
+  <si>
+    <t>Stunde:</t>
+  </si>
+  <si>
+    <t>Tätigkeiten:</t>
+  </si>
+  <si>
+    <t>15:50-18:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +72,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -71,11 +106,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -356,18 +394,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -375,11 +420,63 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44548</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>44548</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4218280B-7AF2-4EA5-8682-7C974F269A80}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A87578-8CBC-4215-B142-9A1232F7C32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -42,19 +42,25 @@
     <t>William Lau</t>
   </si>
   <si>
-    <t>Klickdummy</t>
-  </si>
-  <si>
-    <t>Issues/ERD</t>
-  </si>
-  <si>
-    <t>Stunde:</t>
-  </si>
-  <si>
     <t>Tätigkeiten:</t>
   </si>
   <si>
-    <t>15:50-18:00</t>
+    <t>Arbeitsstunden</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>Yimne Raid</t>
+  </si>
+  <si>
+    <t>Robert Rajkovaca</t>
+  </si>
+  <si>
+    <t>click dummy, repository aufräumen</t>
+  </si>
+  <si>
+    <t>user stories in issues umwandeln, repository aufräumen, ERD, clickdummy design</t>
   </si>
 </sst>
 </file>
@@ -108,12 +114,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -394,88 +400,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44548</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44548</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="L5" s="2">
+        <v>44548</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="P5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>44548</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>44548</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3">
-        <v>44548</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A87578-8CBC-4215-B142-9A1232F7C32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C57FFE6-2B29-41A7-B88F-38E4282CBC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>user stories in issues umwandeln, repository aufräumen, ERD, clickdummy design</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -116,10 +119,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -403,7 +406,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -419,18 +422,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -492,7 +495,7 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -504,8 +507,8 @@
       <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>7</v>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>8</v>
@@ -513,7 +516,7 @@
       <c r="L5" s="2">
         <v>44548</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -522,7 +525,7 @@
       <c r="Q5" s="2">
         <v>44548</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4218280B-7AF2-4EA5-8682-7C974F269A80}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_AD4DB114E441178AC67DF45DD616F01C683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1161F8DE-0F09-4F74-891E-86443C6B3138}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23664" yWindow="624" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>15:50-18:00</t>
+  </si>
+  <si>
+    <t>17:30-xx:xx</t>
   </si>
 </sst>
 </file>
@@ -108,12 +111,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -394,16 +397,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
@@ -413,69 +416,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>44548</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>44548</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>44549</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C57FFE6-2B29-41A7-B88F-38E4282CBC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C13FE3F-A17B-4579-B0B9-2B232C3AB4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>ERD fertigstellen</t>
   </si>
 </sst>
 </file>
@@ -115,13 +118,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,6 +535,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="G6" s="2">
+        <v>44549</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D2"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C13FE3F-A17B-4579-B0B9-2B232C3AB4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D831A102-A701-482F-8752-F13EBCC978B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Robert Rajkovaca</t>
   </si>
   <si>
-    <t>click dummy, repository aufräumen</t>
-  </si>
-  <si>
     <t>user stories in issues umwandeln, repository aufräumen, ERD, clickdummy design</t>
   </si>
   <si>
@@ -67,6 +64,12 @@
   </si>
   <si>
     <t>ERD fertigstellen</t>
+  </si>
+  <si>
+    <t>Click dummy, repository aufräumen</t>
+  </si>
+  <si>
+    <t>Click dummy, Liste an verkauften Produkten zusammenstellen</t>
   </si>
 </sst>
 </file>
@@ -123,11 +126,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="103" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,22 +427,24 @@
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -499,7 +504,7 @@
         <v>44548</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -511,16 +516,19 @@
         <v>44548</v>
       </c>
       <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="2">
         <v>44548</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>7</v>
@@ -540,9 +548,24 @@
         <v>44549</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="5">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>44549</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>44549</v>
+      </c>
+      <c r="R6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="4">
         <v>2</v>
       </c>
     </row>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C57FFE6-2B29-41A7-B88F-38E4282CBC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{3C57FFE6-2B29-41A7-B88F-38E4282CBC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0424F1C-2B87-49A1-B73A-F30F609AFF0C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>click dummy</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -123,6 +126,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -403,25 +407,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -429,13 +439,13 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -485,7 +495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -504,7 +514,7 @@
       <c r="G5" s="2">
         <v>44548</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -527,6 +537,20 @@
       </c>
       <c r="S5" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>44549</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>44549</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D831A102-A701-482F-8752-F13EBCC978B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259E5F57-8E32-4276-B27B-387514F53C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Click dummy, Liste an verkauften Produkten zusammenstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -414,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="103" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="103" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,7 +531,7 @@
         <v>44548</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>7</v>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259E5F57-8E32-4276-B27B-387514F53C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{259E5F57-8E32-4276-B27B-387514F53C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25620D27-096E-47B4-BE88-8A0D37CAFDC8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Robert Rajkovaca</t>
   </si>
   <si>
-    <t>user stories in issues umwandeln, repository aufräumen, ERD, clickdummy design</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -69,10 +66,28 @@
     <t>Click dummy, repository aufräumen</t>
   </si>
   <si>
-    <t>Click dummy, Liste an verkauften Produkten zusammenstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>Click dummy fertigstellen</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>Click dummy, Produktliste (Produktname, Preis) zusammenstellen</t>
+  </si>
+  <si>
+    <t>Produktliste (Produktname, Preis) zusammenstellen</t>
+  </si>
+  <si>
+    <t>user stories in issues umwandeln, repository aufräumen, ERD</t>
+  </si>
+  <si>
+    <t>Click dummy Desgin</t>
   </si>
 </sst>
 </file>
@@ -417,25 +432,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="103" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -443,13 +463,13 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -499,7 +519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -507,7 +527,7 @@
         <v>44548</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -519,10 +539,10 @@
         <v>44548</v>
       </c>
       <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>8</v>
@@ -531,10 +551,10 @@
         <v>44548</v>
       </c>
       <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>9</v>
@@ -542,16 +562,28 @@
       <c r="Q5" s="2">
         <v>44548</v>
       </c>
+      <c r="R5" t="s">
+        <v>16</v>
+      </c>
       <c r="S5" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>44549</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.1</v>
+      </c>
       <c r="G6" s="2">
         <v>44549</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="4">
         <v>2</v>
@@ -560,13 +592,16 @@
         <v>44549</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2.1</v>
       </c>
       <c r="Q6" s="2">
         <v>44549</v>
       </c>
       <c r="R6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="S6" s="4">
         <v>2</v>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{259E5F57-8E32-4276-B27B-387514F53C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25620D27-096E-47B4-BE88-8A0D37CAFDC8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2084B343-E17F-477A-8DCC-28C5FC3FFB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -48,39 +48,21 @@
     <t>Arbeitsstunden</t>
   </si>
   <si>
-    <t>2,5</t>
-  </si>
-  <si>
     <t>Yimne Raid</t>
   </si>
   <si>
     <t>Robert Rajkovaca</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ERD fertigstellen</t>
-  </si>
-  <si>
     <t>Click dummy, repository aufräumen</t>
   </si>
   <si>
     <t>Click dummy fertigstellen</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1,5</t>
-  </si>
-  <si>
     <t>ERD</t>
   </si>
   <si>
-    <t>Click dummy, Produktliste (Produktname, Preis) zusammenstellen</t>
-  </si>
-  <si>
     <t>Produktliste (Produktname, Preis) zusammenstellen</t>
   </si>
   <si>
@@ -88,6 +70,27 @@
   </si>
   <si>
     <t>Click dummy Desgin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Stunden </t>
+  </si>
+  <si>
+    <t>2,5 Stunden</t>
+  </si>
+  <si>
+    <t>2 Stunden 40 Minuten</t>
+  </si>
+  <si>
+    <t>2 Stunden</t>
+  </si>
+  <si>
+    <t>1,5 Stunden</t>
+  </si>
+  <si>
+    <t>2 Stunden 20 Minuten</t>
+  </si>
+  <si>
+    <t>ERD fertigstellen, Clickdummy design</t>
   </si>
 </sst>
 </file>
@@ -432,30 +435,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="60.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="48.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -463,13 +466,13 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -519,7 +522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -527,10 +530,10 @@
         <v>44548</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -539,72 +542,72 @@
         <v>44548</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" s="2">
         <v>44548</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="2">
         <v>44548</v>
       </c>
       <c r="R5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <v>44549</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2.1</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="G6" s="2">
         <v>44549</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="L6" s="2">
         <v>44549</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="4">
-        <v>2.1</v>
+        <v>12</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="Q6" s="2">
         <v>44549</v>
       </c>
       <c r="R6" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="4">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,24 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2084B343-E17F-477A-8DCC-28C5FC3FFB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095D27EE-FFAB-412C-B9B2-F31C9F3E3DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -91,6 +98,21 @@
   </si>
   <si>
     <t>ERD fertigstellen, Clickdummy design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,5 </t>
+  </si>
+  <si>
+    <t>Sprintdatum</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.12.21/20.12.21</t>
+  </si>
+  <si>
+    <t>Gesamt Arbeitsstunden im Sprint</t>
   </si>
 </sst>
 </file>
@@ -142,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -153,6 +175,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -433,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
     <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
@@ -472,149 +495,172 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B7" s="2">
         <v>44548</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44548</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="2">
+        <v>44548</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>44548</v>
+      </c>
+      <c r="R7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>44548</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="2">
-        <v>44548</v>
-      </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>44548</v>
-      </c>
-      <c r="R5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="2">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
         <v>44549</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G8" s="2">
         <v>44549</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H8" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L8" s="2">
         <v>44549</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M8" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q8" s="2">
         <v>44549</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R8" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S8" s="4" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2084B343-E17F-477A-8DCC-28C5FC3FFB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{2084B343-E17F-477A-8DCC-28C5FC3FFB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8DAD0C9-6A0C-4A6C-98C5-856D12C0D0B7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>ERD fertigstellen, Clickdummy design</t>
+  </si>
+  <si>
+    <t>Website mit Hugo konfigurieren</t>
   </si>
 </sst>
 </file>
@@ -433,32 +436,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="48.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -466,13 +469,13 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -522,7 +525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -572,7 +575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>44549</v>
       </c>
@@ -608,6 +611,17 @@
       </c>
       <c r="S6" s="4" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>44564</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{2084B343-E17F-477A-8DCC-28C5FC3FFB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8DAD0C9-6A0C-4A6C-98C5-856D12C0D0B7}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{2084B343-E17F-477A-8DCC-28C5FC3FFB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09C1AF78-0189-437E-AA1A-989D86CCB563}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
+    <sheet name="Gesamte Stundenanzahl" sheetId="2" r:id="rId2"/>
+    <sheet name="Gesamte Stundenanzahl pro Issue" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -72,34 +83,28 @@
     <t>Click dummy Desgin</t>
   </si>
   <si>
-    <t xml:space="preserve">3 Stunden </t>
-  </si>
-  <si>
-    <t>2,5 Stunden</t>
-  </si>
-  <si>
-    <t>2 Stunden 40 Minuten</t>
-  </si>
-  <si>
-    <t>2 Stunden</t>
-  </si>
-  <si>
-    <t>1,5 Stunden</t>
-  </si>
-  <si>
-    <t>2 Stunden 20 Minuten</t>
-  </si>
-  <si>
     <t>ERD fertigstellen, Clickdummy design</t>
   </si>
   <si>
-    <t>Website mit Hugo konfigurieren</t>
+    <t>Gesamte Stundenanzahl:</t>
+  </si>
+  <si>
+    <t>Website mit Hugo konfigurieren, Stundenaufzeichnung ändern</t>
+  </si>
+  <si>
+    <t>Zeit:</t>
+  </si>
+  <si>
+    <t>Gesamte Stundenanzahl pro Issue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="[h]:mm;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,16 +150,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,17 +447,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
@@ -462,18 +473,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -535,8 +546,8 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
+      <c r="D5" s="5">
+        <v>0.10416666666666667</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -547,8 +558,8 @@
       <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
+      <c r="I5" s="5">
+        <v>0.125</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>7</v>
@@ -559,8 +570,8 @@
       <c r="M5" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>18</v>
+      <c r="N5" s="5">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>8</v>
@@ -571,8 +582,8 @@
       <c r="R5" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>16</v>
+      <c r="S5" s="5">
+        <v>0.11805555555555557</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -582,17 +593,17 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
+      <c r="D6" s="5">
+        <v>0.1111111111111111</v>
       </c>
       <c r="G6" s="2">
         <v>44549</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="I6" s="5">
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="L6" s="2">
         <v>44549</v>
@@ -600,8 +611,8 @@
       <c r="M6" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>19</v>
+      <c r="N6" s="5">
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="Q6" s="2">
         <v>44549</v>
@@ -609,8 +620,8 @@
       <c r="R6" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>19</v>
+      <c r="S6" s="5">
+        <v>7.6388888888888895E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -618,17 +629,253 @@
         <v>44564</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00531C19-41A8-4F4B-9932-BCBB44B3EEE8}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <f>SUM(Stundenaufzeichnung!D5:D26)</f>
+        <v>0.31944444444444448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <f>SUM(Stundenaufzeichnung!I3:I17)</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUM(Stundenaufzeichnung!N3:N24)</f>
+        <v>0.15972222222222221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <f>SUM(Stundenaufzeichnung!S3:S24)</f>
+        <v>0.19444444444444448</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A89811-AC7A-4BDB-875B-6F9F15541B52}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{2084B343-E17F-477A-8DCC-28C5FC3FFB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09C1AF78-0189-437E-AA1A-989D86CCB563}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{2084B343-E17F-477A-8DCC-28C5FC3FFB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1993E803-E1AF-4CF3-862F-7E420CAA7151}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
-    <sheet name="Gesamte Stundenanzahl" sheetId="2" r:id="rId2"/>
-    <sheet name="Gesamte Stundenanzahl pro Issue" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprintreview" sheetId="3" r:id="rId1"/>
+    <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId2"/>
+    <sheet name="Stundenanzahl pro Person" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -86,16 +86,25 @@
     <t>ERD fertigstellen, Clickdummy design</t>
   </si>
   <si>
-    <t>Gesamte Stundenanzahl:</t>
-  </si>
-  <si>
     <t>Website mit Hugo konfigurieren, Stundenaufzeichnung ändern</t>
   </si>
   <si>
     <t>Zeit:</t>
   </si>
   <si>
-    <t>Gesamte Stundenanzahl pro Issue</t>
+    <t>Stundenanzahl pro Person:</t>
+  </si>
+  <si>
+    <t>Sprintreview: 13.12.2021</t>
+  </si>
+  <si>
+    <t>Sprintreview:</t>
+  </si>
+  <si>
+    <t>Sprintreview</t>
+  </si>
+  <si>
+    <t>Stundenaufzeichnung</t>
   </si>
 </sst>
 </file>
@@ -103,9 +112,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[h]:mm;@"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +133,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -150,22 +167,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,11 +473,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A89811-AC7A-4BDB-875B-6F9F15541B52}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6">
+        <f>Stundenaufzeichnung!D5+Stundenaufzeichnung!D6+Stundenaufzeichnung!I5+Stundenaufzeichnung!I6+Stundenaufzeichnung!N5+Stundenaufzeichnung!N6+Stundenaufzeichnung!S5+Stundenaufzeichnung!S6</f>
+        <v>0.79166666666666674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>Stundenaufzeichnung!D7+Stundenaufzeichnung!D8+Stundenaufzeichnung!I7</f>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,18 +593,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="I1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -546,7 +676,7 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>0.10416666666666667</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -558,7 +688,7 @@
       <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>0.125</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -570,7 +700,7 @@
       <c r="M5" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -582,7 +712,7 @@
       <c r="R5" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="3">
         <v>0.11805555555555557</v>
       </c>
     </row>
@@ -593,7 +723,7 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>0.1111111111111111</v>
       </c>
       <c r="G6" s="2">
@@ -602,7 +732,7 @@
       <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="L6" s="2">
@@ -611,7 +741,7 @@
       <c r="M6" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="3">
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="Q6" s="2">
@@ -620,7 +750,7 @@
       <c r="R6" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="3">
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
@@ -629,153 +759,170 @@
         <v>44564</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="G7" s="2">
+        <v>44900</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="B8" s="2">
+        <v>44566</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="D13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="S14" s="5"/>
+      <c r="D14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="S15" s="5"/>
+      <c r="D15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="S16" s="5"/>
+      <c r="D16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="S16" s="3"/>
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="S17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="S17" s="3"/>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="S18" s="5"/>
+      <c r="D18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="S18" s="3"/>
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="S19" s="5"/>
+      <c r="D19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="S19" s="3"/>
     </row>
     <row r="20" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="S20" s="5"/>
+      <c r="D20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="S20" s="3"/>
     </row>
     <row r="21" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="S21" s="5"/>
+      <c r="D21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="S21" s="3"/>
     </row>
     <row r="22" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="S22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="S22" s="3"/>
     </row>
     <row r="23" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="S23" s="5"/>
+      <c r="D23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="S23" s="3"/>
     </row>
     <row r="24" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="S24" s="5"/>
+      <c r="D24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="S24" s="3"/>
     </row>
     <row r="25" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="S25" s="5"/>
+      <c r="D25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="S25" s="3"/>
     </row>
     <row r="26" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="S26" s="5"/>
+      <c r="D26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="S26" s="3"/>
     </row>
     <row r="27" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D27" s="5"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D28" s="5"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D29" s="5"/>
+      <c r="D29" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D2"/>
+    <mergeCell ref="I1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00531C19-41A8-4F4B-9932-BCBB44B3EEE8}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,94 +930,70 @@
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="6">
         <f>SUM(Stundenaufzeichnung!D5:D26)</f>
-        <v>0.31944444444444448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+        <v>0.48611111111111116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="6">
         <f>SUM(Stundenaufzeichnung!I3:I17)</f>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+        <v>0.38888888888888884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="6">
         <f>SUM(Stundenaufzeichnung!N3:N24)</f>
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B8" s="6">
         <f>SUM(Stundenaufzeichnung!S3:S24)</f>
         <v>0.19444444444444448</v>
       </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A89811-AC7A-4BDB-875B-6F9F15541B52}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{2084B343-E17F-477A-8DCC-28C5FC3FFB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1993E803-E1AF-4CF3-862F-7E420CAA7151}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCA2C2A-781A-1245-A5DA-365C2B798171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprintreview" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>Stundenaufzeichnung</t>
+  </si>
+  <si>
+    <t>Produktliste überarbeitet</t>
+  </si>
+  <si>
+    <t>Bilder von Produkten aufgenommen</t>
+  </si>
+  <si>
+    <t>Hugo runtergeladen und mit einer demo Website getestet</t>
   </si>
 </sst>
 </file>
@@ -167,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -177,16 +186,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -194,6 +194,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -480,81 +490,81 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>Stundenaufzeichnung!D5+Stundenaufzeichnung!D6+Stundenaufzeichnung!I5+Stundenaufzeichnung!I6+Stundenaufzeichnung!N5+Stundenaufzeichnung!N6+Stundenaufzeichnung!S5+Stundenaufzeichnung!S6</f>
-        <v>0.79166666666666674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.79861111111111116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>Stundenaufzeichnung!D7+Stundenaufzeichnung!D8+Stundenaufzeichnung!I7</f>
         <v>0.4375</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -569,54 +579,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="60.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="I1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="I1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -666,7 +676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -716,7 +726,7 @@
         <v>0.11805555555555557</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>44549</v>
       </c>
@@ -742,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="N6" s="3">
-        <v>7.6388888888888895E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="Q6" s="2">
         <v>44549</v>
@@ -754,7 +764,7 @@
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>44564</v>
       </c>
@@ -773,10 +783,18 @@
       <c r="I7" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="L7" s="2">
+        <v>44558</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>44566</v>
       </c>
@@ -787,124 +805,148 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="L8" s="2">
+        <v>44564</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.125</v>
+      </c>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="L9" s="2">
+        <v>44566</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="L10" s="2">
+        <v>44567</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
       <c r="I11" s="3"/>
       <c r="N11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
       <c r="I12" s="3"/>
       <c r="N12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D13" s="3"/>
       <c r="I13" s="3"/>
       <c r="N13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D14" s="3"/>
       <c r="I14" s="3"/>
       <c r="N14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D15" s="3"/>
       <c r="I15" s="3"/>
       <c r="N15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="I16" s="3"/>
       <c r="N16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D17" s="3"/>
       <c r="I17" s="3"/>
       <c r="N17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D18" s="3"/>
       <c r="I18" s="3"/>
       <c r="N18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D19" s="3"/>
       <c r="I19" s="3"/>
       <c r="N19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D20" s="3"/>
       <c r="I20" s="3"/>
       <c r="N20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D21" s="3"/>
       <c r="I21" s="3"/>
       <c r="N21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
       <c r="I22" s="3"/>
       <c r="N22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D23" s="3"/>
       <c r="I23" s="3"/>
       <c r="N23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D24" s="3"/>
       <c r="I24" s="3"/>
       <c r="N24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D25" s="3"/>
       <c r="I25" s="3"/>
       <c r="N25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D26" s="3"/>
       <c r="I26" s="3"/>
       <c r="N26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D29" s="3"/>
     </row>
   </sheetData>
@@ -921,36 +963,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00531C19-41A8-4F4B-9932-BCBB44B3EEE8}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -959,38 +1001,38 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>SUM(Stundenaufzeichnung!D5:D26)</f>
         <v>0.48611111111111116</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f>SUM(Stundenaufzeichnung!I3:I17)</f>
         <v>0.38888888888888884</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <f>SUM(Stundenaufzeichnung!N3:N24)</f>
-        <v>0.15972222222222221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <f>SUM(Stundenaufzeichnung!S3:S24)</f>
         <v>0.19444444444444448</v>
       </c>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCA2C2A-781A-1245-A5DA-365C2B798171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{BDCA2C2A-781A-1245-A5DA-365C2B798171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1613BD7-442B-4419-99C4-EB7F36A980EE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprintreview" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Hugo runtergeladen und mit einer demo Website getestet</t>
+  </si>
+  <si>
+    <t>Website mit Hugo konfigurieren</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -193,6 +196,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -486,84 +492,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A89811-AC7A-4BDB-875B-6F9F15541B52}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="5">
         <f>Stundenaufzeichnung!D5+Stundenaufzeichnung!D6+Stundenaufzeichnung!I5+Stundenaufzeichnung!I6+Stundenaufzeichnung!N5+Stundenaufzeichnung!N6+Stundenaufzeichnung!S5+Stundenaufzeichnung!S6</f>
-        <v>0.79861111111111116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.84722222222222232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5">
-        <f>Stundenaufzeichnung!D7+Stundenaufzeichnung!D8+Stundenaufzeichnung!I7</f>
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
     </row>
   </sheetData>
@@ -577,56 +580,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="131" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="I1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="I1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -676,7 +683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -726,7 +733,7 @@
         <v>0.11805555555555557</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>44549</v>
       </c>
@@ -743,7 +750,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="3">
-        <v>9.7222222222222224E-2</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="L6" s="2">
         <v>44549</v>
@@ -763,8 +770,9 @@
       <c r="S6" s="3">
         <v>7.6388888888888895E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>44564</v>
       </c>
@@ -772,7 +780,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="3">
-        <v>0.10416666666666667</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G7" s="2">
         <v>44900</v>
@@ -781,7 +789,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="3">
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="L7" s="2">
         <v>44558</v>
@@ -789,12 +797,21 @@
       <c r="M7" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2">
+        <v>44566</v>
+      </c>
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>44566</v>
       </c>
@@ -802,9 +819,17 @@
         <v>16</v>
       </c>
       <c r="D8" s="3">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I8" s="3"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44568</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.15625</v>
+      </c>
       <c r="L8" s="2">
         <v>44564</v>
       </c>
@@ -814,10 +839,27 @@
       <c r="N8" s="3">
         <v>0.125</v>
       </c>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D9" s="3"/>
+      <c r="Q8" s="2">
+        <v>44568</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0.15625</v>
+      </c>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>44568</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.15625</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="L9" s="2">
         <v>44566</v>
@@ -829,8 +871,9 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D10" s="3"/>
       <c r="I10" s="3"/>
       <c r="L10" s="2">
@@ -843,111 +886,134 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D11" s="3"/>
       <c r="I11" s="3"/>
       <c r="N11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="I12" s="3"/>
       <c r="N12" s="3"/>
       <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D13" s="3"/>
       <c r="I13" s="3"/>
       <c r="N13" s="3"/>
       <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D14" s="3"/>
       <c r="I14" s="3"/>
       <c r="N14" s="3"/>
       <c r="S14" s="3"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
       <c r="I15" s="3"/>
       <c r="N15" s="3"/>
       <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
       <c r="I16" s="3"/>
       <c r="N16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
       <c r="I17" s="3"/>
       <c r="N17" s="3"/>
       <c r="S17" s="3"/>
-    </row>
-    <row r="18" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
       <c r="I18" s="3"/>
       <c r="N18" s="3"/>
       <c r="S18" s="3"/>
-    </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
       <c r="I19" s="3"/>
       <c r="N19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
       <c r="I20" s="3"/>
       <c r="N20" s="3"/>
       <c r="S20" s="3"/>
-    </row>
-    <row r="21" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
       <c r="I21" s="3"/>
       <c r="N21" s="3"/>
       <c r="S21" s="3"/>
-    </row>
-    <row r="22" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
       <c r="I22" s="3"/>
       <c r="N22" s="3"/>
       <c r="S22" s="3"/>
-    </row>
-    <row r="23" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
       <c r="I23" s="3"/>
       <c r="N23" s="3"/>
       <c r="S23" s="3"/>
-    </row>
-    <row r="24" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
       <c r="I24" s="3"/>
       <c r="N24" s="3"/>
       <c r="S24" s="3"/>
-    </row>
-    <row r="25" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="I25" s="3"/>
       <c r="N25" s="3"/>
       <c r="S25" s="3"/>
-    </row>
-    <row r="26" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="I26" s="3"/>
       <c r="N26" s="3"/>
       <c r="S26" s="3"/>
-    </row>
-    <row r="27" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="X30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -961,38 +1027,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00531C19-41A8-4F4B-9932-BCBB44B3EEE8}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1001,25 +1067,25 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5">
         <f>SUM(Stundenaufzeichnung!D5:D26)</f>
-        <v>0.48611111111111116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.74652777777777779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5">
         <f>SUM(Stundenaufzeichnung!I3:I17)</f>
-        <v>0.38888888888888884</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.63541666666666674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,14 +1094,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5">
         <f>SUM(Stundenaufzeichnung!S3:S24)</f>
-        <v>0.19444444444444448</v>
-      </c>
+        <v>0.43402777777777779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Projekt/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{BDCA2C2A-781A-1245-A5DA-365C2B798171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1613BD7-442B-4419-99C4-EB7F36A980EE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD7625D-47C8-6E46-B563-1E9B418893C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprintreview" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>Website mit Hugo konfigurieren</t>
+  </si>
+  <si>
+    <t>Website conf. Und UI verbessert</t>
+  </si>
+  <si>
+    <t>Produkte hinzugefügt</t>
+  </si>
+  <si>
+    <t>Website UI verbessert</t>
+  </si>
+  <si>
+    <t>Bilder bearbeitet</t>
   </si>
 </sst>
 </file>
@@ -200,6 +212,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -209,7 +222,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -492,36 +504,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A89811-AC7A-4BDB-875B-6F9F15541B52}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -530,43 +542,43 @@
         <v>0.84722222222222232</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
     </row>
   </sheetData>
@@ -582,58 +594,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="M3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="60.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="I1" s="10" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="I1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -683,7 +695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -733,7 +745,7 @@
         <v>0.11805555555555557</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>44549</v>
       </c>
@@ -772,7 +784,7 @@
       </c>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>44564</v>
       </c>
@@ -811,7 +823,7 @@
       </c>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>44566</v>
       </c>
@@ -850,7 +862,7 @@
       </c>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>44568</v>
       </c>
@@ -860,7 +872,15 @@
       <c r="D9" s="3">
         <v>0.15625</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="G9" s="2">
+        <v>44570</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.1875</v>
+      </c>
       <c r="L9" s="2">
         <v>44566</v>
       </c>
@@ -870,11 +890,27 @@
       <c r="N9" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="S9" s="3"/>
+      <c r="Q9" s="2">
+        <v>44570</v>
+      </c>
+      <c r="R9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D10" s="3"/>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>44570</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6.25E-2</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="L10" s="2">
         <v>44567</v>
@@ -888,131 +924,139 @@
       <c r="S10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="L11" s="2">
+        <v>44570</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
       <c r="I12" s="3"/>
       <c r="N12" s="3"/>
       <c r="S12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D13" s="3"/>
       <c r="I13" s="3"/>
       <c r="N13" s="3"/>
       <c r="S13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D14" s="3"/>
       <c r="I14" s="3"/>
       <c r="N14" s="3"/>
       <c r="S14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D15" s="3"/>
       <c r="I15" s="3"/>
       <c r="N15" s="3"/>
       <c r="S15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="I16" s="3"/>
       <c r="N16" s="3"/>
       <c r="S16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D17" s="3"/>
       <c r="I17" s="3"/>
       <c r="N17" s="3"/>
       <c r="S17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D18" s="3"/>
       <c r="I18" s="3"/>
       <c r="N18" s="3"/>
       <c r="S18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D19" s="3"/>
       <c r="I19" s="3"/>
       <c r="N19" s="3"/>
       <c r="S19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D20" s="3"/>
       <c r="I20" s="3"/>
       <c r="N20" s="3"/>
       <c r="S20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D21" s="3"/>
       <c r="I21" s="3"/>
       <c r="N21" s="3"/>
       <c r="S21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
       <c r="I22" s="3"/>
       <c r="N22" s="3"/>
       <c r="S22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D23" s="3"/>
       <c r="I23" s="3"/>
       <c r="N23" s="3"/>
       <c r="S23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D24" s="3"/>
       <c r="I24" s="3"/>
       <c r="N24" s="3"/>
       <c r="S24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D25" s="3"/>
       <c r="I25" s="3"/>
       <c r="N25" s="3"/>
       <c r="S25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D26" s="3"/>
       <c r="I26" s="3"/>
       <c r="N26" s="3"/>
       <c r="S26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:24" x14ac:dyDescent="0.2">
       <c r="X30" s="3"/>
     </row>
   </sheetData>
@@ -1033,32 +1077,32 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1067,45 +1111,45 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5">
         <f>SUM(Stundenaufzeichnung!D5:D26)</f>
-        <v>0.74652777777777779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.80902777777777779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5">
         <f>SUM(Stundenaufzeichnung!I3:I17)</f>
-        <v>0.63541666666666674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.82291666666666674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5">
         <f>SUM(Stundenaufzeichnung!N3:N24)</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.70833333333333326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5">
         <f>SUM(Stundenaufzeichnung!S3:S24)</f>
-        <v>0.43402777777777779</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.51736111111111116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Projekt/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD7625D-47C8-6E46-B563-1E9B418893C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DBCF91-E061-4A6E-B1A2-D0D7ADFE2E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprintreview" sheetId="3" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -110,12 +108,6 @@
     <t>Produktliste überarbeitet</t>
   </si>
   <si>
-    <t>Bilder von Produkten aufgenommen</t>
-  </si>
-  <si>
-    <t>Hugo runtergeladen und mit einer demo Website getestet</t>
-  </si>
-  <si>
     <t>Website mit Hugo konfigurieren</t>
   </si>
   <si>
@@ -129,6 +121,15 @@
   </si>
   <si>
     <t>Bilder bearbeitet</t>
+  </si>
+  <si>
+    <t>Sich mit Hugo auseinandersetzen(test website, funktionen lernen etc)</t>
+  </si>
+  <si>
+    <t>Produktbilder aufnehmen</t>
+  </si>
+  <si>
+    <t>Website konfigurieren</t>
   </si>
 </sst>
 </file>
@@ -191,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -222,6 +223,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -504,16 +506,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A89811-AC7A-4BDB-875B-6F9F15541B52}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
@@ -521,19 +523,19 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -542,43 +544,45 @@
         <v>0.84722222222222232</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>2.53125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
     </row>
   </sheetData>
@@ -594,34 +598,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="60.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="48.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -635,7 +639,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -645,7 +649,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -695,7 +699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -745,7 +749,7 @@
         <v>0.11805555555555557</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <v>44549</v>
       </c>
@@ -784,63 +788,63 @@
       </c>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
-        <v>44564</v>
+        <v>44558</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3">
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G7" s="2">
-        <v>44900</v>
+        <v>44558</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I7" s="3">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="L7" s="2">
         <v>44558</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N7" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="Q7" s="2">
-        <v>44566</v>
+        <v>44558</v>
       </c>
       <c r="R7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S7" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
-        <v>44566</v>
+        <v>44564</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G8" s="2">
-        <v>44568</v>
+        <v>44564</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I8" s="3">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="L8" s="2">
         <v>44564</v>
@@ -852,46 +856,46 @@
         <v>0.125</v>
       </c>
       <c r="Q8" s="2">
-        <v>44568</v>
+        <v>44566</v>
       </c>
       <c r="R8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="S8" s="3">
-        <v>0.15625</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
-        <v>44568</v>
+        <v>44566</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3">
-        <v>0.15625</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="G9" s="2">
-        <v>44570</v>
+        <v>44900</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I9" s="3">
-        <v>0.1875</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="L9" s="2">
         <v>44566</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N9" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="Q9" s="2">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="R9" t="s">
         <v>30</v>
@@ -901,162 +905,209 @@
       </c>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
-        <v>44570</v>
+        <v>44568</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3">
-        <v>6.25E-2</v>
-      </c>
-      <c r="I10" s="3"/>
+        <v>0.15625</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44568</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.15625</v>
+      </c>
       <c r="L10" s="2">
         <v>44567</v>
       </c>
       <c r="M10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N10" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="Q10" s="2">
+        <v>44568</v>
+      </c>
+      <c r="R10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.15625</v>
+      </c>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D11" s="3"/>
-      <c r="I11" s="3"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
+        <v>44570</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44570</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.1875</v>
+      </c>
       <c r="L11" s="2">
         <v>44570</v>
       </c>
       <c r="M11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N11" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="S11" s="3"/>
+      <c r="Q11" s="2">
+        <v>44570</v>
+      </c>
+      <c r="R11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D12" s="3"/>
       <c r="I12" s="3"/>
       <c r="N12" s="3"/>
       <c r="S12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D13" s="3"/>
       <c r="I13" s="3"/>
       <c r="N13" s="3"/>
       <c r="S13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
       <c r="D14" s="3"/>
       <c r="I14" s="3"/>
       <c r="N14" s="3"/>
       <c r="S14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D15" s="3"/>
       <c r="I15" s="3"/>
       <c r="N15" s="3"/>
       <c r="S15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D16" s="3"/>
       <c r="I16" s="3"/>
       <c r="N16" s="3"/>
       <c r="S16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D17" s="3"/>
       <c r="I17" s="3"/>
       <c r="N17" s="3"/>
       <c r="S17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D18" s="3"/>
       <c r="I18" s="3"/>
       <c r="N18" s="3"/>
       <c r="S18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D19" s="3"/>
       <c r="I19" s="3"/>
       <c r="N19" s="3"/>
       <c r="S19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D20" s="3"/>
       <c r="I20" s="3"/>
       <c r="N20" s="3"/>
       <c r="S20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D21" s="3"/>
       <c r="I21" s="3"/>
       <c r="N21" s="3"/>
       <c r="S21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D22" s="3"/>
       <c r="I22" s="3"/>
       <c r="N22" s="3"/>
       <c r="S22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D23" s="3"/>
       <c r="I23" s="3"/>
       <c r="N23" s="3"/>
       <c r="S23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D24" s="3"/>
       <c r="I24" s="3"/>
       <c r="N24" s="3"/>
       <c r="S24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D25" s="3"/>
       <c r="I25" s="3"/>
       <c r="N25" s="3"/>
       <c r="S25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D26" s="3"/>
       <c r="I26" s="3"/>
       <c r="N26" s="3"/>
       <c r="S26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="S27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="S28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:24" x14ac:dyDescent="0.35">
+      <c r="D30" s="3"/>
       <c r="X30" s="3"/>
     </row>
   </sheetData>
@@ -1074,15 +1125,15 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -1090,19 +1141,19 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1111,25 +1162,25 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <f>SUM(Stundenaufzeichnung!D5:D26)</f>
-        <v>0.80902777777777779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(Stundenaufzeichnung!D5:D27)</f>
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <f>SUM(Stundenaufzeichnung!I3:I17)</f>
-        <v>0.82291666666666674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(Stundenaufzeichnung!I3:I19)</f>
+        <v>1.03125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1138,16 +1189,16 @@
         <v>0.70833333333333326</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5">
-        <f>SUM(Stundenaufzeichnung!S3:S24)</f>
-        <v>0.51736111111111116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(Stundenaufzeichnung!S3:S26)</f>
+        <v>0.68402777777777779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="10"/>
     </row>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DBCF91-E061-4A6E-B1A2-D0D7ADFE2E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{38DBCF91-E061-4A6E-B1A2-D0D7ADFE2E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{590A0D14-0E0E-4099-9FE1-1B1DBCD2ADAF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-180" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprintreview" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -96,9 +98,6 @@
     <t>Sprintreview: 13.12.2021</t>
   </si>
   <si>
-    <t>Sprintreview:</t>
-  </si>
-  <si>
     <t>Sprintreview</t>
   </si>
   <si>
@@ -130,6 +129,9 @@
   </si>
   <si>
     <t>Website konfigurieren</t>
+  </si>
+  <si>
+    <t>Sprintreview: 10.01.2022</t>
   </si>
 </sst>
 </file>
@@ -214,6 +216,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -223,7 +226,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -507,35 +509,35 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="11"/>
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="12"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -544,45 +546,45 @@
         <v>0.84722222222222232</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5">
         <v>2.53125</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
     </row>
   </sheetData>
@@ -599,57 +601,57 @@
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="48.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="I1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="I1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -699,7 +701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -749,7 +751,7 @@
         <v>0.11805555555555557</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>44549</v>
       </c>
@@ -788,12 +790,12 @@
       </c>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>44558</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3">
         <v>8.3333333333333329E-2</v>
@@ -802,7 +804,7 @@
         <v>44558</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="3">
         <v>8.3333333333333329E-2</v>
@@ -811,7 +813,7 @@
         <v>44558</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N7" s="9">
         <v>8.3333333333333329E-2</v>
@@ -820,14 +822,14 @@
         <v>44558</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S7" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>44564</v>
       </c>
@@ -841,7 +843,7 @@
         <v>44564</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="3">
         <v>0.125</v>
@@ -850,7 +852,7 @@
         <v>44564</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8" s="3">
         <v>0.125</v>
@@ -859,14 +861,14 @@
         <v>44566</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S8" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>44566</v>
       </c>
@@ -889,7 +891,7 @@
         <v>44566</v>
       </c>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" s="3">
         <v>8.3333333333333329E-2</v>
@@ -898,19 +900,19 @@
         <v>44567</v>
       </c>
       <c r="R9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S9" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>44568</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3">
         <v>0.15625</v>
@@ -919,7 +921,7 @@
         <v>44568</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="3">
         <v>0.15625</v>
@@ -928,7 +930,7 @@
         <v>44567</v>
       </c>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="3">
         <v>8.3333333333333329E-2</v>
@@ -937,19 +939,19 @@
         <v>44568</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S10" s="3">
         <v>0.15625</v>
       </c>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>44570</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3">
         <v>0.125</v>
@@ -958,7 +960,7 @@
         <v>44570</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="3">
         <v>0.1875</v>
@@ -967,7 +969,7 @@
         <v>44570</v>
       </c>
       <c r="M11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N11" s="3">
         <v>0.16666666666666666</v>
@@ -976,137 +978,137 @@
         <v>44570</v>
       </c>
       <c r="R11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S11" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="I12" s="3"/>
       <c r="N12" s="3"/>
       <c r="S12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D13" s="3"/>
       <c r="I13" s="3"/>
       <c r="N13" s="3"/>
       <c r="S13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="D14" s="3"/>
       <c r="I14" s="3"/>
       <c r="N14" s="3"/>
       <c r="S14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
       <c r="I15" s="3"/>
       <c r="N15" s="3"/>
       <c r="S15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
       <c r="I16" s="3"/>
       <c r="N16" s="3"/>
       <c r="S16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
       <c r="I17" s="3"/>
       <c r="N17" s="3"/>
       <c r="S17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
       <c r="I18" s="3"/>
       <c r="N18" s="3"/>
       <c r="S18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
       <c r="I19" s="3"/>
       <c r="N19" s="3"/>
       <c r="S19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
       <c r="I20" s="3"/>
       <c r="N20" s="3"/>
       <c r="S20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
       <c r="I21" s="3"/>
       <c r="N21" s="3"/>
       <c r="S21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
       <c r="I22" s="3"/>
       <c r="N22" s="3"/>
       <c r="S22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
       <c r="I23" s="3"/>
       <c r="N23" s="3"/>
       <c r="S23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
       <c r="I24" s="3"/>
       <c r="N24" s="3"/>
       <c r="S24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="I25" s="3"/>
       <c r="N25" s="3"/>
       <c r="S25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="I26" s="3"/>
       <c r="N26" s="3"/>
       <c r="S26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="I27" s="3"/>
       <c r="S27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="I28" s="3"/>
       <c r="S28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="X30" s="3"/>
     </row>
@@ -1125,35 +1127,35 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1162,7 +1164,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +1173,7 @@
         <v>0.95486111111111116</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1182,7 @@
         <v>1.03125</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1189,7 +1191,7 @@
         <v>0.70833333333333326</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1198,7 +1200,7 @@
         <v>0.68402777777777779</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="10"/>
     </row>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Projekt/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{38DBCF91-E061-4A6E-B1A2-D0D7ADFE2E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{590A0D14-0E0E-4099-9FE1-1B1DBCD2ADAF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E2C7A8-AA13-BD43-93F5-2AFE30DAFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-180" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprintreview" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -98,6 +98,9 @@
     <t>Sprintreview: 13.12.2021</t>
   </si>
   <si>
+    <t>Sprintreview:</t>
+  </si>
+  <si>
     <t>Sprintreview</t>
   </si>
   <si>
@@ -107,6 +110,12 @@
     <t>Produktliste überarbeitet</t>
   </si>
   <si>
+    <t>Bilder von Produkten aufgenommen</t>
+  </si>
+  <si>
+    <t>Hugo runtergeladen und mit einer demo Website getestet</t>
+  </si>
+  <si>
     <t>Website mit Hugo konfigurieren</t>
   </si>
   <si>
@@ -120,18 +129,6 @@
   </si>
   <si>
     <t>Bilder bearbeitet</t>
-  </si>
-  <si>
-    <t>Sich mit Hugo auseinandersetzen(test website, funktionen lernen etc)</t>
-  </si>
-  <si>
-    <t>Produktbilder aufnehmen</t>
-  </si>
-  <si>
-    <t>Website konfigurieren</t>
-  </si>
-  <si>
-    <t>Sprintreview: 10.01.2022</t>
   </si>
 </sst>
 </file>
@@ -194,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -216,7 +213,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -508,36 +504,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A89811-AC7A-4BDB-875B-6F9F15541B52}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="12"/>
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -546,45 +542,43 @@
         <v>0.84722222222222232</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2.53125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
     </row>
   </sheetData>
@@ -600,58 +594,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="60.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="I1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="I1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -701,7 +695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,7 +745,7 @@
         <v>0.11805555555555557</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>44549</v>
       </c>
@@ -790,326 +784,279 @@
       </c>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
-        <v>44558</v>
+        <v>44564</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3">
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G7" s="2">
-        <v>44558</v>
+        <v>44900</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I7" s="3">
-        <v>8.3333333333333329E-2</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="L7" s="2">
         <v>44558</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N7" s="9">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="Q7" s="2">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="R7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S7" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
-        <v>44564</v>
+        <v>44566</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3">
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="G8" s="2">
-        <v>44564</v>
+        <v>44568</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I8" s="3">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="L8" s="2">
         <v>44564</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="3">
         <v>0.125</v>
       </c>
       <c r="Q8" s="2">
-        <v>44566</v>
+        <v>44568</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S8" s="3">
-        <v>8.3333333333333329E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
-        <v>44566</v>
+        <v>44568</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3">
-        <v>0.20833333333333334</v>
+        <v>0.15625</v>
       </c>
       <c r="G9" s="2">
-        <v>44900</v>
+        <v>44570</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I9" s="3">
-        <v>0.20833333333333334</v>
+        <v>0.1875</v>
       </c>
       <c r="L9" s="2">
         <v>44566</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N9" s="3">
-        <v>8.3333333333333329E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="Q9" s="2">
-        <v>44567</v>
+        <v>44570</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S9" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
-        <v>44568</v>
+        <v>44570</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3">
-        <v>0.15625</v>
-      </c>
-      <c r="G10" s="2">
-        <v>44568</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.15625</v>
-      </c>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I10" s="3"/>
       <c r="L10" s="2">
         <v>44567</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N10" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>44568</v>
-      </c>
-      <c r="R10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0.15625</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="S10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>44570</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="G11" s="2">
-        <v>44570</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.1875</v>
-      </c>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D11" s="3"/>
+      <c r="I11" s="3"/>
       <c r="L11" s="2">
         <v>44570</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N11" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q11" s="2">
-        <v>44570</v>
-      </c>
-      <c r="R11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="S11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
       <c r="I12" s="3"/>
       <c r="N12" s="3"/>
       <c r="S12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D13" s="3"/>
       <c r="I13" s="3"/>
       <c r="N13" s="3"/>
       <c r="S13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D14" s="3"/>
       <c r="I14" s="3"/>
       <c r="N14" s="3"/>
       <c r="S14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D15" s="3"/>
       <c r="I15" s="3"/>
       <c r="N15" s="3"/>
       <c r="S15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="I16" s="3"/>
       <c r="N16" s="3"/>
       <c r="S16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D17" s="3"/>
       <c r="I17" s="3"/>
       <c r="N17" s="3"/>
       <c r="S17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D18" s="3"/>
       <c r="I18" s="3"/>
       <c r="N18" s="3"/>
       <c r="S18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D19" s="3"/>
       <c r="I19" s="3"/>
       <c r="N19" s="3"/>
       <c r="S19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D20" s="3"/>
       <c r="I20" s="3"/>
       <c r="N20" s="3"/>
       <c r="S20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D21" s="3"/>
       <c r="I21" s="3"/>
       <c r="N21" s="3"/>
       <c r="S21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
       <c r="I22" s="3"/>
       <c r="N22" s="3"/>
       <c r="S22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D23" s="3"/>
       <c r="I23" s="3"/>
       <c r="N23" s="3"/>
       <c r="S23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D24" s="3"/>
       <c r="I24" s="3"/>
       <c r="N24" s="3"/>
       <c r="S24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D25" s="3"/>
       <c r="I25" s="3"/>
       <c r="N25" s="3"/>
       <c r="S25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D26" s="3"/>
       <c r="I26" s="3"/>
       <c r="N26" s="3"/>
       <c r="S26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="S27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="S28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D30" s="3"/>
+    <row r="30" spans="4:24" x14ac:dyDescent="0.2">
       <c r="X30" s="3"/>
     </row>
   </sheetData>
@@ -1126,36 +1073,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00531C19-41A8-4F4B-9932-BCBB44B3EEE8}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1164,43 +1111,43 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <f>SUM(Stundenaufzeichnung!D5:D27)</f>
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <f>SUM(Stundenaufzeichnung!D5:D26)</f>
+        <v>0.80902777777777779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <f>SUM(Stundenaufzeichnung!I3:I19)</f>
-        <v>1.03125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <f>SUM(Stundenaufzeichnung!I3:I17)</f>
+        <v>0.82291666666666674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5">
         <f>SUM(Stundenaufzeichnung!N3:N24)</f>
-        <v>0.70833333333333326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.81249999999999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5">
-        <f>SUM(Stundenaufzeichnung!S3:S26)</f>
-        <v>0.68402777777777779</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <f>SUM(Stundenaufzeichnung!S3:S24)</f>
+        <v>0.51736111111111116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="10"/>
     </row>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Projekt/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E2C7A8-AA13-BD43-93F5-2AFE30DAFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DA7C34-0B23-3046-9752-40665378F4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprintreview" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Bilder bearbeitet</t>
+  </si>
+  <si>
+    <t>Bugs gelösst</t>
   </si>
 </sst>
 </file>
@@ -594,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -942,7 +945,15 @@
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="L12" s="2">
+        <v>44571</v>
+      </c>
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -1073,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00531C19-41A8-4F4B-9932-BCBB44B3EEE8}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1135,7 +1146,7 @@
       </c>
       <c r="B7" s="5">
         <f>SUM(Stundenaufzeichnung!N3:N24)</f>
-        <v>0.81249999999999989</v>
+        <v>0.89583333333333326</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimne/Documents/4CHIF/SYP/Projekt/webshop-jasmin/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DA7C34-0B23-3046-9752-40665378F4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF18F752-B1B2-4F83-86FB-B2BD688E7764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprintreview" sheetId="3" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -95,12 +93,6 @@
     <t>Stundenanzahl pro Person:</t>
   </si>
   <si>
-    <t>Sprintreview: 13.12.2021</t>
-  </si>
-  <si>
-    <t>Sprintreview:</t>
-  </si>
-  <si>
     <t>Sprintreview</t>
   </si>
   <si>
@@ -132,6 +124,18 @@
   </si>
   <si>
     <t>Bugs gelösst</t>
+  </si>
+  <si>
+    <t>Sprintreview: 17.01.2022</t>
+  </si>
+  <si>
+    <t>Produktbilder bearbeitet</t>
+  </si>
+  <si>
+    <t>Sprintreview: 20.12.2021</t>
+  </si>
+  <si>
+    <t>Arbeiten an Hugo website</t>
   </si>
 </sst>
 </file>
@@ -194,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -225,6 +229,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -507,81 +512,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A89811-AC7A-4BDB-875B-6F9F15541B52}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5">
         <f>Stundenaufzeichnung!D5+Stundenaufzeichnung!D6+Stundenaufzeichnung!I5+Stundenaufzeichnung!I6+Stundenaufzeichnung!N5+Stundenaufzeichnung!N6+Stundenaufzeichnung!S5+Stundenaufzeichnung!S6</f>
         <v>0.84722222222222232</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2.40625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
     </row>
   </sheetData>
@@ -597,34 +604,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="A2" zoomScale="74" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="60.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="48.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -632,13 +639,13 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="I1" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -648,7 +655,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -698,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,7 +755,7 @@
         <v>0.11805555555555557</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <v>44549</v>
       </c>
@@ -787,7 +794,7 @@
       </c>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
         <v>44564</v>
       </c>
@@ -798,7 +805,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="G7" s="2">
-        <v>44900</v>
+        <v>44566</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
@@ -810,23 +817,23 @@
         <v>44558</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N7" s="9">
         <v>0.125</v>
       </c>
       <c r="Q7" s="2">
-        <v>44566</v>
+        <v>44558</v>
       </c>
       <c r="R7" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="3">
-        <v>8.3333333333333329E-2</v>
+        <v>23</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0.125</v>
       </c>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <v>44566</v>
       </c>
@@ -840,7 +847,7 @@
         <v>44568</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I8" s="3">
         <v>0.15625</v>
@@ -849,28 +856,28 @@
         <v>44564</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N8" s="3">
         <v>0.125</v>
       </c>
       <c r="Q8" s="2">
-        <v>44568</v>
+        <v>44566</v>
       </c>
       <c r="R8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="S8" s="3">
-        <v>0.15625</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>44568</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3">
         <v>0.15625</v>
@@ -879,7 +886,7 @@
         <v>44570</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I9" s="3">
         <v>0.1875</v>
@@ -888,68 +895,92 @@
         <v>44566</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N9" s="3">
         <v>0.10416666666666667</v>
       </c>
       <c r="Q9" s="2">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="R9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="S9" s="3">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>44570</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="G10" s="2">
+        <v>44577</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.125</v>
+      </c>
       <c r="L10" s="2">
         <v>44567</v>
       </c>
       <c r="M10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N10" s="3">
         <v>0.125</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="Q10" s="2">
+        <v>44568</v>
+      </c>
+      <c r="R10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.15625</v>
+      </c>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D11" s="3"/>
       <c r="I11" s="3"/>
       <c r="L11" s="2">
         <v>44570</v>
       </c>
       <c r="M11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N11" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="S11" s="3"/>
+      <c r="Q11" s="2">
+        <v>44570</v>
+      </c>
+      <c r="R11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D12" s="3"/>
       <c r="I12" s="3"/>
       <c r="L12" s="2">
         <v>44571</v>
       </c>
       <c r="M12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N12" s="3">
         <v>8.3333333333333329E-2</v>
@@ -957,117 +988,120 @@
       <c r="S12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C13" s="14"/>
       <c r="D13" s="3"/>
       <c r="I13" s="3"/>
       <c r="N13" s="3"/>
       <c r="S13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D14" s="3"/>
       <c r="I14" s="3"/>
       <c r="N14" s="3"/>
       <c r="S14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D15" s="3"/>
       <c r="I15" s="3"/>
       <c r="N15" s="3"/>
       <c r="S15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D16" s="3"/>
       <c r="I16" s="3"/>
       <c r="N16" s="3"/>
       <c r="S16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D17" s="3"/>
       <c r="I17" s="3"/>
       <c r="N17" s="3"/>
       <c r="S17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D18" s="3"/>
       <c r="I18" s="3"/>
       <c r="N18" s="3"/>
       <c r="S18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D19" s="3"/>
       <c r="I19" s="3"/>
       <c r="N19" s="3"/>
       <c r="S19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D20" s="3"/>
       <c r="I20" s="3"/>
       <c r="N20" s="3"/>
       <c r="S20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D21" s="3"/>
       <c r="I21" s="3"/>
       <c r="N21" s="3"/>
       <c r="S21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D22" s="3"/>
       <c r="I22" s="3"/>
       <c r="N22" s="3"/>
       <c r="S22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D23" s="3"/>
       <c r="I23" s="3"/>
       <c r="N23" s="3"/>
       <c r="S23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D24" s="3"/>
       <c r="I24" s="3"/>
       <c r="N24" s="3"/>
       <c r="S24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D25" s="3"/>
       <c r="I25" s="3"/>
       <c r="N25" s="3"/>
       <c r="S25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D26" s="3"/>
       <c r="I26" s="3"/>
       <c r="N26" s="3"/>
       <c r="S26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D27" s="3"/>
+      <c r="S27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D28" s="3"/>
+      <c r="S28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:24" x14ac:dyDescent="0.35">
       <c r="X30" s="3"/>
     </row>
   </sheetData>
@@ -1085,15 +1119,15 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="A1:XFD1048576"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -1101,19 +1135,19 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1122,7 +1156,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1131,16 +1165,16 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5">
         <f>SUM(Stundenaufzeichnung!I3:I17)</f>
-        <v>0.82291666666666674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.94791666666666674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1149,16 +1183,16 @@
         <v>0.89583333333333326</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5">
-        <f>SUM(Stundenaufzeichnung!S3:S24)</f>
-        <v>0.51736111111111116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(Stundenaufzeichnung!S3:S26)</f>
+        <v>0.72569444444444442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="10"/>
     </row>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF18F752-B1B2-4F83-86FB-B2BD688E7764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D09E27F-48BE-47CF-82E0-0CE9D74DF651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprintreview" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Bugs gelösst</t>
   </si>
   <si>
-    <t>Sprintreview: 17.01.2022</t>
-  </si>
-  <si>
     <t>Produktbilder bearbeitet</t>
   </si>
   <si>
@@ -136,6 +133,36 @@
   </si>
   <si>
     <t>Arbeiten an Hugo website</t>
+  </si>
+  <si>
+    <t>Sprintreview: 07.02.2022</t>
+  </si>
+  <si>
+    <t>mit Dbeaver außeinangesetzt</t>
+  </si>
+  <si>
+    <t>ERD überarbeitet</t>
+  </si>
+  <si>
+    <t>ERD veränderung, überarbeitung(als team)</t>
+  </si>
+  <si>
+    <t>Veränderungen an ERD</t>
+  </si>
+  <si>
+    <t>ERD verändert</t>
+  </si>
+  <si>
+    <t>Sprintreview: 24.01.2022</t>
+  </si>
+  <si>
+    <t>Erstellung MySQL Datenbank</t>
+  </si>
+  <si>
+    <t>Issue #42 Datenbank erstellen: 10:20</t>
+  </si>
+  <si>
+    <t>Stundenanzahl pro Issue</t>
   </si>
 </sst>
 </file>
@@ -220,6 +247,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -229,7 +257,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -512,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A89811-AC7A-4BDB-875B-6F9F15541B52}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,16 +549,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
@@ -543,7 +570,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5">
         <f>Stundenaufzeichnung!D5+Stundenaufzeichnung!D6+Stundenaufzeichnung!I5+Stundenaufzeichnung!I6+Stundenaufzeichnung!N5+Stundenaufzeichnung!N6+Stundenaufzeichnung!S5+Stundenaufzeichnung!S6</f>
@@ -552,13 +579,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B5" s="5">
         <v>2.40625</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
       <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -604,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="74" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -632,28 +662,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="I1" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="I1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -925,7 +955,7 @@
         <v>44577</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="3">
         <v>0.125</v>
@@ -943,7 +973,7 @@
         <v>44568</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S10" s="3">
         <v>0.15625</v>
@@ -951,8 +981,24 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="D11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="B11" s="2">
+        <v>44590</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44564</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="3">
+        <v>6.25E-2</v>
+      </c>
       <c r="L11" s="2">
         <v>44570</v>
       </c>
@@ -975,7 +1021,15 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="2">
+        <v>44590</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5.5555555555555552E-2</v>
+      </c>
       <c r="L12" s="2">
         <v>44571</v>
       </c>
@@ -985,20 +1039,52 @@
       <c r="N12" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="S12" s="3"/>
+      <c r="Q12" s="2">
+        <v>44590</v>
+      </c>
+      <c r="R12" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="3">
+        <v>5.5555555555555552E-2</v>
+      </c>
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="C13" s="14"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="G13" s="2">
+        <v>37292</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1875</v>
+      </c>
+      <c r="L13" s="2">
+        <v>44590</v>
+      </c>
+      <c r="M13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="3">
+        <v>5.5555555555555552E-2</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="G14" s="2">
+        <v>37293</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.1875</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="S14" s="3"/>
       <c r="X14" s="3"/>
@@ -1017,91 +1103,97 @@
       <c r="S16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="I17" s="3"/>
       <c r="N17" s="3"/>
       <c r="S17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="I18" s="3"/>
       <c r="N18" s="3"/>
       <c r="S18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D19" s="3"/>
       <c r="I19" s="3"/>
       <c r="N19" s="3"/>
       <c r="S19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D20" s="3"/>
       <c r="I20" s="3"/>
       <c r="N20" s="3"/>
       <c r="S20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D21" s="3"/>
       <c r="I21" s="3"/>
       <c r="N21" s="3"/>
       <c r="S21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D22" s="3"/>
       <c r="I22" s="3"/>
       <c r="N22" s="3"/>
       <c r="S22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D23" s="3"/>
       <c r="I23" s="3"/>
       <c r="N23" s="3"/>
       <c r="S23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D24" s="3"/>
       <c r="I24" s="3"/>
       <c r="N24" s="3"/>
       <c r="S24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D25" s="3"/>
       <c r="I25" s="3"/>
       <c r="N25" s="3"/>
       <c r="S25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D26" s="3"/>
       <c r="I26" s="3"/>
       <c r="N26" s="3"/>
       <c r="S26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D27" s="3"/>
       <c r="S27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D28" s="3"/>
       <c r="S28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X30" s="3"/>
     </row>
   </sheetData>
@@ -1119,7 +1211,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1128,18 +1220,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
@@ -1162,7 +1254,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM(Stundenaufzeichnung!D5:D26)</f>
-        <v>0.80902777777777779</v>
+        <v>0.86458333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1171,7 +1263,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM(Stundenaufzeichnung!I3:I17)</f>
-        <v>0.94791666666666674</v>
+        <v>1.4409722222222223</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1180,7 +1272,7 @@
       </c>
       <c r="B7" s="5">
         <f>SUM(Stundenaufzeichnung!N3:N24)</f>
-        <v>0.89583333333333326</v>
+        <v>0.95138888888888884</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1189,7 +1281,7 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(Stundenaufzeichnung!S3:S26)</f>
-        <v>0.72569444444444442</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D09E27F-48BE-47CF-82E0-0CE9D74DF651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3E7544-6601-4BE2-B1A7-1D7F36CDA840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -159,10 +159,13 @@
     <t>Erstellung MySQL Datenbank</t>
   </si>
   <si>
-    <t>Issue #42 Datenbank erstellen: 10:20</t>
-  </si>
-  <si>
     <t>Stundenanzahl pro Issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              </t>
+  </si>
+  <si>
+    <t>Issue #42 MySQL Datenbank erstellen:</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1020,6 +1023,7 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
       <c r="D12" s="3"/>
       <c r="G12" s="2">
         <v>44590</v>
@@ -1083,7 +1087,7 @@
         <v>40</v>
       </c>
       <c r="I14" s="3">
-        <v>0.1875</v>
+        <v>0.20138888888888887</v>
       </c>
       <c r="N14" s="3"/>
       <c r="S14" s="3"/>
@@ -1105,9 +1109,12 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="G17" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="3"/>
       <c r="I17" s="3"/>
       <c r="N17" s="3"/>
       <c r="S17" s="3"/>
@@ -1115,8 +1122,13 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>41</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B18" s="11">
+        <f>SUM(I12,D11,I11,I13,I14,N13,S12)</f>
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C18" s="10"/>
       <c r="D18" s="3"/>
       <c r="I18" s="3"/>
       <c r="N18" s="3"/>
@@ -1211,7 +1223,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1263,7 +1275,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM(Stundenaufzeichnung!I3:I17)</f>
-        <v>1.4409722222222223</v>
+        <v>1.4548611111111112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3E7544-6601-4BE2-B1A7-1D7F36CDA840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDF2934-0A02-4CFE-A91F-96C120517AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -87,12 +87,6 @@
     <t>Website mit Hugo konfigurieren, Stundenaufzeichnung ändern</t>
   </si>
   <si>
-    <t>Zeit:</t>
-  </si>
-  <si>
-    <t>Stundenanzahl pro Person:</t>
-  </si>
-  <si>
     <t>Sprintreview</t>
   </si>
   <si>
@@ -165,7 +159,46 @@
     <t xml:space="preserve">                              </t>
   </si>
   <si>
-    <t>Issue #42 MySQL Datenbank erstellen:</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sprint Nr.</t>
+  </si>
+  <si>
+    <t>Zeit</t>
+  </si>
+  <si>
+    <t>Stundenaufzeichnung angepasst</t>
+  </si>
+  <si>
+    <t>Stundenanzahl pro Person per Sprint</t>
+  </si>
+  <si>
+    <t>Stundenanzahl pro Person gesamt</t>
+  </si>
+  <si>
+    <t>Issue Name</t>
+  </si>
+  <si>
+    <t>MySQL Datenbank erstellen (inkl. Alle Tables, Keys, Constraints)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue Nr. </t>
+  </si>
+  <si>
+    <t>#42</t>
+  </si>
+  <si>
+    <t>Stundenanzahl pro Sprint</t>
+  </si>
+  <si>
+    <t>Startdatum</t>
+  </si>
+  <si>
+    <t>Enddatum</t>
+  </si>
+  <si>
+    <t>Stunden</t>
   </si>
 </sst>
 </file>
@@ -175,7 +208,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +240,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -228,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -243,9 +284,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -254,12 +292,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -542,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A89811-AC7A-4BDB-875B-6F9F15541B52}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,7 +617,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="7"/>
@@ -573,7 +637,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5">
         <f>Stundenaufzeichnung!D5+Stundenaufzeichnung!D6+Stundenaufzeichnung!I5+Stundenaufzeichnung!I6+Stundenaufzeichnung!N5+Stundenaufzeichnung!N6+Stundenaufzeichnung!S5+Stundenaufzeichnung!S6</f>
@@ -582,17 +646,20 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5">
         <v>2.40625</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="5"/>
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5">
+        <f>SUM(Stundenaufzeichnung!D11,Stundenaufzeichnung!I11,Stundenaufzeichnung!I12,Stundenaufzeichnung!I13,Stundenaufzeichnung!I14,Stundenaufzeichnung!I15,Stundenaufzeichnung!N13,Stundenaufzeichnung!S12)</f>
+        <v>0.71527777777777779</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
@@ -637,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +739,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="I1" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
@@ -850,18 +917,18 @@
         <v>44558</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="9">
+        <v>21</v>
+      </c>
+      <c r="N7" s="8">
         <v>0.125</v>
       </c>
       <c r="Q7" s="2">
         <v>44558</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="9">
+        <v>21</v>
+      </c>
+      <c r="S7" s="8">
         <v>0.125</v>
       </c>
       <c r="X7" s="3"/>
@@ -880,7 +947,7 @@
         <v>44568</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" s="3">
         <v>0.15625</v>
@@ -889,7 +956,7 @@
         <v>44564</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N8" s="3">
         <v>0.125</v>
@@ -898,7 +965,7 @@
         <v>44566</v>
       </c>
       <c r="R8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S8" s="3">
         <v>8.3333333333333329E-2</v>
@@ -910,7 +977,7 @@
         <v>44568</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3">
         <v>0.15625</v>
@@ -919,7 +986,7 @@
         <v>44570</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I9" s="3">
         <v>0.1875</v>
@@ -928,7 +995,7 @@
         <v>44566</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N9" s="3">
         <v>0.10416666666666667</v>
@@ -937,7 +1004,7 @@
         <v>44567</v>
       </c>
       <c r="R9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S9" s="3">
         <v>0.125</v>
@@ -949,7 +1016,7 @@
         <v>44570</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3">
         <v>6.25E-2</v>
@@ -958,7 +1025,7 @@
         <v>44577</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I10" s="3">
         <v>0.125</v>
@@ -967,7 +1034,7 @@
         <v>44567</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N10" s="3">
         <v>0.125</v>
@@ -976,7 +1043,7 @@
         <v>44568</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S10" s="3">
         <v>0.15625</v>
@@ -988,7 +1055,7 @@
         <v>44590</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3">
         <v>5.5555555555555552E-2</v>
@@ -997,7 +1064,7 @@
         <v>44564</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I11" s="3">
         <v>6.25E-2</v>
@@ -1006,7 +1073,7 @@
         <v>44570</v>
       </c>
       <c r="M11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N11" s="3">
         <v>0.16666666666666666</v>
@@ -1015,7 +1082,7 @@
         <v>44570</v>
       </c>
       <c r="R11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S11" s="3">
         <v>4.1666666666666664E-2</v>
@@ -1029,7 +1096,7 @@
         <v>44590</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3">
         <v>5.5555555555555552E-2</v>
@@ -1038,7 +1105,7 @@
         <v>44571</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N12" s="3">
         <v>8.3333333333333329E-2</v>
@@ -1047,7 +1114,7 @@
         <v>44590</v>
       </c>
       <c r="R12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S12" s="3">
         <v>5.5555555555555552E-2</v>
@@ -1055,13 +1122,13 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="C13" s="11"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="3"/>
       <c r="G13" s="2">
-        <v>37292</v>
+        <v>44597</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I13" s="3">
         <v>0.1875</v>
@@ -1070,7 +1137,7 @@
         <v>44590</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N13" s="3">
         <v>5.5555555555555552E-2</v>
@@ -1081,10 +1148,10 @@
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D14" s="3"/>
       <c r="G14" s="2">
-        <v>37293</v>
+        <v>44598</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I14" s="3">
         <v>0.20138888888888887</v>
@@ -1095,7 +1162,15 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="G15" s="2">
+        <v>44598</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="S15" s="3"/>
       <c r="X15" s="3"/>
@@ -1107,29 +1182,23 @@
       <c r="S16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
+    <row r="17" spans="1:24" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="18"/>
       <c r="D17" s="3"/>
       <c r="G17" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H17" s="10"/>
       <c r="I17" s="3"/>
       <c r="N17" s="3"/>
       <c r="S17" s="3"/>
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="11">
-        <f>SUM(I12,D11,I11,I13,I14,N13,S12)</f>
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="C18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="3"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="3"/>
       <c r="N18" s="3"/>
       <c r="S18" s="3"/>
@@ -1137,6 +1206,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D19" s="3"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="3"/>
       <c r="N19" s="3"/>
       <c r="S19" s="3"/>
@@ -1220,90 +1290,229 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00531C19-41A8-4F4B-9932-BCBB44B3EEE8}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="F1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="23"/>
+      <c r="P1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="J3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="2">
+        <v>44536</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44549</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="15">
+        <f>SUM(Stundenaufzeichnung!I3:I17)</f>
+        <v>1.4965277777777779</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="L4" s="2">
+        <v>44585</v>
+      </c>
+      <c r="M4" s="2">
+        <v>44599</v>
+      </c>
+      <c r="N4" s="9">
+        <f>SUM(Stundenaufzeichnung!I11,Stundenaufzeichnung!I12,Stundenaufzeichnung!I13,Stundenaufzeichnung!I14,Stundenaufzeichnung!I15)</f>
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="P4" s="19">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="21">
+        <f>SUM(Stundenaufzeichnung!D11,Stundenaufzeichnung!I11,Stundenaufzeichnung!I12,Stundenaufzeichnung!I14,Stundenaufzeichnung!I13,Stundenaufzeichnung!I15,Stundenaufzeichnung!N13,Stundenaufzeichnung!S12)</f>
+        <v>0.71527777777777779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="24">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44550</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44584</v>
+      </c>
+      <c r="D5" s="25">
+        <v>2.40625</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="15">
+        <f>SUM(Stundenaufzeichnung!N3:N24)</f>
+        <v>0.95138888888888884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="24">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44585</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44598</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="15">
         <f>SUM(Stundenaufzeichnung!D5:D26)</f>
         <v>0.86458333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <f>SUM(Stundenaufzeichnung!I3:I17)</f>
-        <v>1.4548611111111112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5">
-        <f>SUM(Stundenaufzeichnung!N3:N24)</f>
-        <v>0.95138888888888884</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="F7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
+      <c r="G7" s="15">
         <f>SUM(Stundenaufzeichnung!S3:S26)</f>
         <v>0.78125</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="16"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:B8">
+    <sortCondition descending="1" ref="B5:B8"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDF2934-0A02-4CFE-A91F-96C120517AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3895E3E6-A793-4470-AEA0-3141270C248A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprintreview" sheetId="3" r:id="rId1"/>
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -295,15 +295,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -324,6 +318,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -616,16 +619,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
@@ -704,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -732,28 +735,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="I1" s="12" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="I1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1183,7 +1186,7 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="1:24" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="18"/>
+      <c r="A17" s="16"/>
       <c r="D17" s="3"/>
       <c r="G17" t="s">
         <v>40</v>
@@ -1290,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00531C19-41A8-4F4B-9932-BCBB44B3EEE8}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1302,45 +1305,47 @@
     <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="F1" s="17" t="s">
+      <c r="B1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="23"/>
-      <c r="P1" s="17" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="21"/>
+      <c r="Q1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="12"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -1360,36 +1365,36 @@
         <v>54</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="24">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="22">
         <v>1</v>
       </c>
       <c r="B4" s="2">
@@ -1401,45 +1406,45 @@
       <c r="D4" s="9">
         <v>0.84722222222222221</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <f>SUM(Stundenaufzeichnung!I3:I17)</f>
         <v>1.4965277777777779</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>4</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>44585</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>44599</v>
       </c>
-      <c r="N4" s="9">
+      <c r="O4" s="9">
         <f>SUM(Stundenaufzeichnung!I11,Stundenaufzeichnung!I12,Stundenaufzeichnung!I13,Stundenaufzeichnung!I14,Stundenaufzeichnung!I15)</f>
         <v>0.54861111111111105</v>
       </c>
-      <c r="P4" s="19">
+      <c r="Q4" s="17">
         <v>3</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="R4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="S4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="21">
+      <c r="T4" s="19">
         <f>SUM(Stundenaufzeichnung!D11,Stundenaufzeichnung!I11,Stundenaufzeichnung!I12,Stundenaufzeichnung!I14,Stundenaufzeichnung!I13,Stundenaufzeichnung!I15,Stundenaufzeichnung!N13,Stundenaufzeichnung!S12)</f>
         <v>0.71527777777777779</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="24">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="22">
         <v>2</v>
       </c>
       <c r="B5" s="2">
@@ -1448,19 +1453,19 @@
       <c r="C5" s="2">
         <v>44584</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <v>2.40625</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <f>SUM(Stundenaufzeichnung!N3:N24)</f>
         <v>0.95138888888888884</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="24">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="22">
         <v>3</v>
       </c>
       <c r="B6" s="2">
@@ -1472,34 +1477,34 @@
       <c r="D6" s="9">
         <v>0.71527777777777779</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <f>SUM(Stundenaufzeichnung!D5:D26)</f>
         <v>0.86458333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="F7" s="14" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <f>SUM(Stundenaufzeichnung!S3:S26)</f>
         <v>0.78125</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
     </row>
   </sheetData>
@@ -1507,10 +1512,10 @@
     <sortCondition descending="1" ref="B5:B8"/>
   </sortState>
   <mergeCells count="4">
-    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3895E3E6-A793-4470-AEA0-3141270C248A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E342D06-C5DC-4884-AC32-F9ECA0F3F43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprintreview" sheetId="3" r:id="rId1"/>
-    <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId2"/>
-    <sheet name="Stundenanzahl pro Person" sheetId="2" r:id="rId3"/>
+    <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
+    <sheet name="Stundenanzahl pro Person" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -87,9 +86,6 @@
     <t>Website mit Hugo konfigurieren, Stundenaufzeichnung ändern</t>
   </si>
   <si>
-    <t>Sprintreview</t>
-  </si>
-  <si>
     <t>Stundenaufzeichnung</t>
   </si>
   <si>
@@ -123,15 +119,9 @@
     <t>Produktbilder bearbeitet</t>
   </si>
   <si>
-    <t>Sprintreview: 20.12.2021</t>
-  </si>
-  <si>
     <t>Arbeiten an Hugo website</t>
   </si>
   <si>
-    <t>Sprintreview: 07.02.2022</t>
-  </si>
-  <si>
     <t>mit Dbeaver außeinangesetzt</t>
   </si>
   <si>
@@ -145,9 +135,6 @@
   </si>
   <si>
     <t>ERD verändert</t>
-  </si>
-  <si>
-    <t>Sprintreview: 24.01.2022</t>
   </si>
   <si>
     <t>Erstellung MySQL Datenbank</t>
@@ -269,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -279,11 +266,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -327,6 +309,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -606,109 +589,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A89811-AC7A-4BDB-875B-6F9F15541B52}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5">
-        <f>Stundenaufzeichnung!D5+Stundenaufzeichnung!D6+Stundenaufzeichnung!I5+Stundenaufzeichnung!I6+Stundenaufzeichnung!N5+Stundenaufzeichnung!N6+Stundenaufzeichnung!S5+Stundenaufzeichnung!S6</f>
-        <v>0.84722222222222232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2.40625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5">
-        <f>SUM(Stundenaufzeichnung!D11,Stundenaufzeichnung!I11,Stundenaufzeichnung!I12,Stundenaufzeichnung!I13,Stundenaufzeichnung!I14,Stundenaufzeichnung!I15,Stundenaufzeichnung!N13,Stundenaufzeichnung!S12)</f>
-        <v>0.71527777777777779</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -735,28 +620,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="I1" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="I1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -920,18 +805,18 @@
         <v>44558</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="8">
+        <v>20</v>
+      </c>
+      <c r="N7" s="5">
         <v>0.125</v>
       </c>
       <c r="Q7" s="2">
         <v>44558</v>
       </c>
       <c r="R7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="8">
+        <v>20</v>
+      </c>
+      <c r="S7" s="5">
         <v>0.125</v>
       </c>
       <c r="X7" s="3"/>
@@ -950,7 +835,7 @@
         <v>44568</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="3">
         <v>0.15625</v>
@@ -959,7 +844,7 @@
         <v>44564</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N8" s="3">
         <v>0.125</v>
@@ -968,7 +853,7 @@
         <v>44566</v>
       </c>
       <c r="R8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S8" s="3">
         <v>8.3333333333333329E-2</v>
@@ -980,7 +865,7 @@
         <v>44568</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3">
         <v>0.15625</v>
@@ -989,7 +874,7 @@
         <v>44570</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="3">
         <v>0.1875</v>
@@ -998,7 +883,7 @@
         <v>44566</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N9" s="3">
         <v>0.10416666666666667</v>
@@ -1007,7 +892,7 @@
         <v>44567</v>
       </c>
       <c r="R9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S9" s="3">
         <v>0.125</v>
@@ -1019,7 +904,7 @@
         <v>44570</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3">
         <v>6.25E-2</v>
@@ -1028,7 +913,7 @@
         <v>44577</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3">
         <v>0.125</v>
@@ -1037,7 +922,7 @@
         <v>44567</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N10" s="3">
         <v>0.125</v>
@@ -1046,7 +931,7 @@
         <v>44568</v>
       </c>
       <c r="R10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S10" s="3">
         <v>0.15625</v>
@@ -1058,7 +943,7 @@
         <v>44590</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3">
         <v>5.5555555555555552E-2</v>
@@ -1067,7 +952,7 @@
         <v>44564</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I11" s="3">
         <v>6.25E-2</v>
@@ -1076,7 +961,7 @@
         <v>44570</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11" s="3">
         <v>0.16666666666666666</v>
@@ -1085,7 +970,7 @@
         <v>44570</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S11" s="3">
         <v>4.1666666666666664E-2</v>
@@ -1099,7 +984,7 @@
         <v>44590</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I12" s="3">
         <v>5.5555555555555552E-2</v>
@@ -1108,7 +993,7 @@
         <v>44571</v>
       </c>
       <c r="M12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N12" s="3">
         <v>8.3333333333333329E-2</v>
@@ -1117,7 +1002,7 @@
         <v>44590</v>
       </c>
       <c r="R12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="S12" s="3">
         <v>5.5555555555555552E-2</v>
@@ -1125,13 +1010,13 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="C13" s="10"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="3"/>
       <c r="G13" s="2">
         <v>44597</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I13" s="3">
         <v>0.1875</v>
@@ -1140,7 +1025,7 @@
         <v>44590</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N13" s="3">
         <v>5.5555555555555552E-2</v>
@@ -1154,7 +1039,7 @@
         <v>44598</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I14" s="3">
         <v>0.20138888888888887</v>
@@ -1169,7 +1054,7 @@
         <v>44598</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I15" s="3">
         <v>4.1666666666666664E-2</v>
@@ -1186,22 +1071,22 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="1:24" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="16"/>
+      <c r="A17" s="13"/>
       <c r="D17" s="3"/>
       <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="H17" s="7"/>
       <c r="I17" s="3"/>
       <c r="N17" s="3"/>
       <c r="S17" s="3"/>
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B18" s="10"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="3"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="3"/>
       <c r="N18" s="3"/>
       <c r="S18" s="3"/>
@@ -1209,7 +1094,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D19" s="3"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="3"/>
       <c r="N19" s="3"/>
       <c r="S19" s="3"/>
@@ -1291,12 +1176,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00531C19-41A8-4F4B-9932-BCBB44B3EEE8}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1306,95 +1191,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="F1" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="21"/>
-      <c r="Q1" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="A1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="F1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="18"/>
+      <c r="Q1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H3" s="4"/>
       <c r="K3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="22">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
       <c r="B4" s="2">
@@ -1403,13 +1288,13 @@
       <c r="C4" s="2">
         <v>44549</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>0.84722222222222221</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="11">
         <f>SUM(Stundenaufzeichnung!I3:I17)</f>
         <v>1.4965277777777779</v>
       </c>
@@ -1425,26 +1310,26 @@
       <c r="N4" s="2">
         <v>44599</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="6">
         <f>SUM(Stundenaufzeichnung!I11,Stundenaufzeichnung!I12,Stundenaufzeichnung!I13,Stundenaufzeichnung!I14,Stundenaufzeichnung!I15)</f>
         <v>0.54861111111111105</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="14">
         <v>3</v>
       </c>
-      <c r="R4" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="19">
+      <c r="R4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="16">
         <f>SUM(Stundenaufzeichnung!D11,Stundenaufzeichnung!I11,Stundenaufzeichnung!I12,Stundenaufzeichnung!I14,Stundenaufzeichnung!I13,Stundenaufzeichnung!I15,Stundenaufzeichnung!N13,Stundenaufzeichnung!S12)</f>
         <v>0.71527777777777779</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="22">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
       <c r="B5" s="2">
@@ -1453,19 +1338,34 @@
       <c r="C5" s="2">
         <v>44584</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="20">
         <v>2.40625</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="11">
         <f>SUM(Stundenaufzeichnung!N3:N24)</f>
         <v>0.95138888888888884</v>
       </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>44585</v>
+      </c>
+      <c r="N5" s="2">
+        <v>44599</v>
+      </c>
+      <c r="O5" s="6">
+        <v>5.5555555555555552E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="22">
+      <c r="A6" s="19">
         <v>3</v>
       </c>
       <c r="B6" s="2">
@@ -1474,29 +1374,59 @@
       <c r="C6" s="2">
         <v>44598</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>0.71527777777777779</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <f>SUM(Stundenaufzeichnung!D5:D26)</f>
         <v>0.86458333333333337</v>
       </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>44585</v>
+      </c>
+      <c r="N6" s="2">
+        <v>44616</v>
+      </c>
+      <c r="O6" s="6">
+        <v>5.5555555555555552E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="11">
         <f>SUM(Stundenaufzeichnung!S3:S26)</f>
         <v>0.78125</v>
       </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>44585</v>
+      </c>
+      <c r="N7" s="2">
+        <v>44616</v>
+      </c>
+      <c r="O7" s="6">
+        <v>5.5555555555555552E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="12"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E342D06-C5DC-4884-AC32-F9ECA0F3F43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642B4925-2C7A-44F0-B843-F1D8FB085AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Stunden</t>
+  </si>
+  <si>
+    <t>Datenbank mappen(JPA)</t>
   </si>
 </sst>
 </file>
@@ -300,11 +303,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -592,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,28 +623,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="I1" s="21" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="I1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1065,7 +1068,15 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="G16" s="2">
+        <v>44607</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="S16" s="3"/>
       <c r="X16" s="3"/>
@@ -1296,7 +1307,7 @@
       </c>
       <c r="G4" s="11">
         <f>SUM(Stundenaufzeichnung!I3:I17)</f>
-        <v>1.4965277777777779</v>
+        <v>1.5798611111111112</v>
       </c>
       <c r="K4" t="s">
         <v>4</v>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\Schule\SYP\Project Repo\webshop-jasmin\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642B4925-2C7A-44F0-B843-F1D8FB085AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{642B4925-2C7A-44F0-B843-F1D8FB085AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5D37428-1CB3-49EC-851C-7E933F0C3D2D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>Stundenaufzeichnung:</t>
   </si>
@@ -143,9 +146,6 @@
     <t>Stundenanzahl pro Issue</t>
   </si>
   <si>
-    <t xml:space="preserve">                              </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Datenbank mappen(JPA)</t>
+  </si>
+  <si>
+    <t>Fehler lösen (Entity Veerbung)</t>
+  </si>
+  <si>
+    <t>API-Schnittstelle</t>
   </si>
 </sst>
 </file>
@@ -595,34 +601,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="48.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -636,7 +642,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -646,7 +652,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -696,7 +702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,7 +752,7 @@
         <v>0.11805555555555557</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>44549</v>
       </c>
@@ -785,7 +791,7 @@
       </c>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>44564</v>
       </c>
@@ -824,7 +830,7 @@
       </c>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>44566</v>
       </c>
@@ -863,7 +869,7 @@
       </c>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>44568</v>
       </c>
@@ -902,7 +908,7 @@
       </c>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>44570</v>
       </c>
@@ -941,7 +947,7 @@
       </c>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>44590</v>
       </c>
@@ -980,9 +986,16 @@
       </c>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B12" s="2"/>
-      <c r="D12" s="3"/>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>44616</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="G12" s="2">
         <v>44590</v>
       </c>
@@ -1012,9 +1025,16 @@
       </c>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="C13" s="7"/>
-      <c r="D13" s="3"/>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>44618</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G13" s="2">
         <v>44597</v>
       </c>
@@ -1036,8 +1056,16 @@
       <c r="S13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="D14" s="3"/>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>44619</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="G14" s="2">
         <v>44598</v>
       </c>
@@ -1051,13 +1079,13 @@
       <c r="S14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
       <c r="G15" s="2">
         <v>44598</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="3">
         <v>4.1666666666666664E-2</v>
@@ -1066,13 +1094,13 @@
       <c r="S15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
       <c r="G16" s="2">
         <v>44607</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="3">
         <v>8.3333333333333329E-2</v>
@@ -1081,29 +1109,40 @@
       <c r="S16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="1:24" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="D17" s="3"/>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="3"/>
+      <c r="G17" s="2">
+        <v>44585</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="S17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="6"/>
       <c r="D18" s="3"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="3"/>
+      <c r="G18" s="2">
+        <v>44619</v>
+      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="S18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
       <c r="H19" s="7"/>
       <c r="I19" s="3"/>
@@ -1111,70 +1150,70 @@
       <c r="S19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
       <c r="I20" s="3"/>
       <c r="N20" s="3"/>
       <c r="S20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
       <c r="I21" s="3"/>
       <c r="N21" s="3"/>
       <c r="S21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
       <c r="I22" s="3"/>
       <c r="N22" s="3"/>
       <c r="S22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
       <c r="I23" s="3"/>
       <c r="N23" s="3"/>
       <c r="S23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
       <c r="I24" s="3"/>
       <c r="N24" s="3"/>
       <c r="S24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="I25" s="3"/>
       <c r="N25" s="3"/>
       <c r="S25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="I26" s="3"/>
       <c r="N26" s="3"/>
       <c r="S26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="S27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="S28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="X30" s="3"/>
     </row>
   </sheetData>
@@ -1195,26 +1234,26 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="24"/>
       <c r="F1" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
       <c r="J1" s="18"/>
       <c r="K1" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
@@ -1226,7 +1265,7 @@
       <c r="R1" s="23"/>
       <c r="S1" s="23"/>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -1241,55 +1280,55 @@
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="4"/>
       <c r="K3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>1</v>
       </c>
@@ -1307,7 +1346,7 @@
       </c>
       <c r="G4" s="11">
         <f>SUM(Stundenaufzeichnung!I3:I17)</f>
-        <v>1.5798611111111112</v>
+        <v>1.7465277777777779</v>
       </c>
       <c r="K4" t="s">
         <v>4</v>
@@ -1329,17 +1368,17 @@
         <v>3</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T4" s="16">
         <f>SUM(Stundenaufzeichnung!D11,Stundenaufzeichnung!I11,Stundenaufzeichnung!I12,Stundenaufzeichnung!I14,Stundenaufzeichnung!I13,Stundenaufzeichnung!I15,Stundenaufzeichnung!N13,Stundenaufzeichnung!S12)</f>
         <v>0.71527777777777779</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>2</v>
       </c>
@@ -1375,7 +1414,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>3</v>
       </c>
@@ -1393,7 +1432,7 @@
       </c>
       <c r="G6" s="11">
         <f>SUM(Stundenaufzeichnung!D5:D26)</f>
-        <v>0.86458333333333337</v>
+        <v>1.3229166666666665</v>
       </c>
       <c r="K6" t="s">
         <v>3</v>
@@ -1411,7 +1450,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F7" s="10" t="s">
         <v>8</v>
       </c>
@@ -1435,17 +1474,17 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="12"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
   </sheetData>

--- a/Dokumente/Stundenaufzeichnung.xlsx
+++ b/Dokumente/Stundenaufzeichnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68157115d40ac8e2/Desktop/Schule/SYP/webshop-jasmin/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{642B4925-2C7A-44F0-B843-F1D8FB085AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5D37428-1CB3-49EC-851C-7E933F0C3D2D}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{642B4925-2C7A-44F0-B843-F1D8FB085AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36A7343C-C924-47D4-9C0A-36C898A8F70C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-180" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufzeichnung" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
     <col min="3" max="3" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1230,13 +1230,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00531C19-41A8-4F4B-9932-BCBB44B3EEE8}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
